--- a/medicine/Enfance/Annie_Prévost/Annie_Prévost.xlsx
+++ b/medicine/Enfance/Annie_Prévost/Annie_Prévost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Annie_Pr%C3%A9vost</t>
+          <t>Annie_Prévost</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Annie Prévot, dite Nanou, née en 1946, est une conteuse et auteure de livres pour la jeunesse.
 En 1999, elle participe à  Radio France à Cherbourg. Le responsable des programmes lui propose de diffuser ses contes à l'antenne, chaque mercredi. Ce seront Les min'histoires de Nanou, courts récits hebdomadaires de trois minutes qui seront ultérieurement rediffusés en Haute-Normandie, et ce jusqu'en 2004. Ces récits sont secondairement coédités en livre jeunesse aux éditions Petit à petit et France Bleu, avec la complicité d'un responsable de France Bleu Haute-Normandie, Hervé Chabbal, tour à tour dessinées par la nouvelle illustratrice parisienne Christelle Lardenois, la Rouennaise Gaëlle Queval, directrice artistique du mensuel Normandie Junior, le bédéiste belge Baloo et l'illustrateur-romancier argentanais Bruno Robert. Depuis lors, hormis la parenthèse de Gribouille, elle a cessé son activité éditoriale.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Annie_Pr%C3%A9vost</t>
+          <t>Annie_Prévost</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Livres en vie 3 (automne 2007).</t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Annie_Pr%C3%A9vost</t>
+          <t>Annie_Prévost</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Série Les Min'histoires de Nanou</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Min'histoires de Nanou, La Zizanie des fêtes, illustration de Christelle Lardenois, éditions Petit à petit, Darnétal, avril 2004.
 Les Min'histoires de Nanou, Les Malheurs d'automnia, illustration de Gaëlle Queval, éditions Petit à petit, Darnétal.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Annie_Pr%C3%A9vost</t>
+          <t>Annie_Prévost</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Série Gribouille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Gribouille au Mont-Saint-Michel, illustration de Jean-François Miniac, avril 2010.
 Gribouille et le fantôme de Monet, illustration de Jean-François Miniac, 2013.
